--- a/火焰筹数据库表格.xlsx
+++ b/火焰筹数据库表格.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\fireraise\fireraise\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>管理员账号 management</t>
   </si>
@@ -116,9 +116,6 @@
     <t>用户邮箱</t>
   </si>
   <si>
-    <t>进度表 progress</t>
-  </si>
-  <si>
     <t>用户密码</t>
   </si>
   <si>
@@ -131,15 +128,9 @@
     <t>appId</t>
   </si>
   <si>
-    <t>项目id</t>
-  </si>
-  <si>
     <t>平台账户金额</t>
   </si>
   <si>
-    <t>进度文字描述</t>
-  </si>
-  <si>
     <t>bankcard</t>
   </si>
   <si>
@@ -149,9 +140,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>进度时间</t>
-  </si>
-  <si>
     <t>账号状态</t>
   </si>
   <si>
@@ -177,13 +165,63 @@
   </si>
   <si>
     <t>描述对象的id</t>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true:第一张(正面);false:第二张(反面);null:第三张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oolean</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请现有可提现金额(已筹集总金额 - 已提现金额)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avilable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +232,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -300,7 +346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,6 +364,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -388,7 +449,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,7 +484,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -632,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K23"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -647,19 +708,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="G2" s="6" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="G2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -773,253 +834,211 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>19</v>
       </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="G8" s="1" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>24</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="4">
-        <v>500</v>
-      </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="2">
-        <v>11</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="4">
+        <v>500</v>
+      </c>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="2">
-        <v>50</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="2">
-        <v>20</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="2">
-        <v>20</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="2">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="2">
-        <v>20</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="2">
-        <v>200</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>25</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2">
-        <v>25</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="G18" s="1"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="2">
-        <v>20</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="G19" s="1"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -1027,13 +1046,17 @@
       <c r="E20" s="2">
         <v>20</v>
       </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -1041,76 +1064,102 @@
       <c r="E21" s="2">
         <v>20</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="G25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="G22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="H25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="5">
-        <v>10</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="I25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="5">
-        <v>20</v>
-      </c>
+      <c r="J25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G22:J22"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:K2"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G18:J18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/火焰筹数据库表格.xlsx
+++ b/火焰筹数据库表格.xlsx
@@ -21,13 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
-  <si>
-    <t>管理员账号 management</t>
-  </si>
-  <si>
-    <t>项目申请表 applicant</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -56,9 +50,6 @@
     <t>管理员邮箱</t>
   </si>
   <si>
-    <t>beginDate</t>
-  </si>
-  <si>
     <t>申请开始时间</t>
   </si>
   <si>
@@ -71,9 +62,6 @@
     <t>管理员密码</t>
   </si>
   <si>
-    <t>endDate</t>
-  </si>
-  <si>
     <t>申请结束或者冻结时间</t>
   </si>
   <si>
@@ -143,53 +131,16 @@
     <t>账号状态</t>
   </si>
   <si>
-    <t>提现记录表 money</t>
-  </si>
-  <si>
     <t>提现发起人id</t>
   </si>
   <si>
     <t>提现项目id</t>
   </si>
   <si>
-    <t>图片 picture</t>
-  </si>
-  <si>
     <t>提现金额</t>
   </si>
   <si>
     <t>提现发起时间</t>
-  </si>
-  <si>
-    <t>targetId</t>
-  </si>
-  <si>
-    <t>描述对象的id</t>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true:第一张(正面);false:第二张(反面);null:第三张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>oolean</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>申请现有可提现金额(已筹集总金额 - 已提现金额)</t>
@@ -214,6 +165,30 @@
   </si>
   <si>
     <t>avilable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员账号 management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目申请表 applicant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现记录表 money</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,12 +343,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -388,6 +357,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,7 +674,7 @@
   <dimension ref="B2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -708,41 +686,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="G2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
+      <c r="B2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="G2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>20</v>
@@ -751,25 +729,25 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>20</v>
@@ -778,60 +756,60 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2">
         <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
         <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="27" x14ac:dyDescent="0.15">
@@ -840,69 +818,69 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="G7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="I9" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
       </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
         <v>20</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" s="4">
         <v>500</v>
@@ -911,13 +889,13 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
@@ -925,237 +903,222 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2">
         <v>50</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2">
         <v>20</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="J13" s="2"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2">
         <v>5</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="J14" s="2"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="J15" s="2"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2">
         <v>25</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="G19" s="1"/>
-      <c r="J19" s="2"/>
+      <c r="B19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2">
         <v>20</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2">
         <v>20</v>
       </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2">
         <v>20</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="G23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="2">
-        <v>20</v>
-      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="5">
         <v>10</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="G25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="G25" s="6"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="G22:J22"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G18:J18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
